--- a/Docs/final sprint 1.xlsx
+++ b/Docs/final sprint 1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010"/>
@@ -535,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1129,6 +1129,12 @@
       </c>
       <c r="D41" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="C42">
+        <f>SUM(C2:C41)</f>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
